--- a/CERNA.xlsx
+++ b/CERNA.xlsx
@@ -4,26 +4,42 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="text" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -43,16 +59,51 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="90"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -409,183 +460,297 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="4.17" customWidth="1" style="4" min="1" max="1"/>
+    <col width="34.32" customWidth="1" style="4" min="2" max="7"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="5">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Social</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Environmental</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>Economic</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>Political</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>Educational</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>Innovative process</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="13.8" customHeight="1" s="5">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>Level of Analysis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>* Micro
-The text proposes a Climate and Energy Related Norms and Attitudes (CERNA) survey to assess the knowledge, attitudes, and behaviors of individuals within the PROBONO Living Labs. The survey aims to identify gaps in public understanding of climate issues and misconceptions about energy-saving behaviors, in order to inform targeted interventions and communications for behavior change. The survey also aims to assess climate change literacy and address the phenomenon of pluralistic ignorance, where individuals underestimate the support for climate policies and actions, which can hinder behavior change and policy-making efforts.</t>
+          <t>Micro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>* Macro
-* The proposed social innovation aims to assess and address cognitive biases and misconceptions related to climate and energy-related behavior. It proposes administering a Climate and Energy Related Norms and Attitudes (CERNA) survey in Living Labs, focusing on energy literacy, climate change literacy, and pluralistic ignorance. The survey aims to identify gaps in public understanding and awareness and inform the design of targeted interventions to promote more sustainable behaviors.</t>
+          <t>Macro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>* Meso
-* The text proposes the use of a Climate and Energy Related Norms and Attitudes (CERNA) survey to assess the knowledge, attitudes, and behaviors related to energy and climate change in the PROBONO Living Labs. The survey aims to identify misconceptions and gaps in understanding, which could inform targeted interventions such as providing energy-saving kits or implementing policy recommendations. The text emphasizes the importance of understanding social norms and addressing pluralistic ignorance to facilitate behavior change and policy-making.</t>
+          <t>Meso</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>* Micro
-The text provides a proposal for a survey called Climate and Energy Related Norms and Attitudes (CERNA) to assess knowledge, attitudes, and behaviors related to energy literacy and climate change literacy. The survey aims to address cognitive biases and misconceptions that may impact individuals' decision-making processes and hinder behavior change towards sustainable and energy-efficient choices. The survey also aims to assess pluralistic ignorance, which refers to the shared misconception of how others think or act, particularly related to climate issues. The proposed survey will provide valuable insights to inform targeted interventions and communication strategies to promote pro-environmental social norms and maximize their potential within the Probono Living Labs.</t>
+          <t>Micro</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>*Micro
-The text contains a proposal to administer a Climate and Energy Related Norms and Attitudes (CERNA) survey in the PROBONO Living Labs to assess knowledge, attitudes, and behaviors related to energy literacy and climate change literacy. The survey aims to identify misconceptions and gaps in understanding in order to inform targeted interventions and communication strategies. It also addresses the concept of pluralistic ignorance and the importance of social norms in influencing behavior change.</t>
+          <t>Micro</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>* Micro
-The text discusses the importance of understanding individual attitudes, beliefs, and behavior when it comes to climate and energy-related norms. It emphasizes the need to assess knowledge and attitudes through surveys and research in order to inform interventions and address cognitive biases that may influence behavior change.
-* The text highlights the importance of considering cognitive biases such as the false consensus effect, misinformation effect, availability heuristic, and optimism bias when attempting to change energy and environment-related behaviors. It suggests that interventions should be informed by understanding the gaps in public understanding on climate issues and addressing misconceptions.
-* The text also proposes the use of surveys to assess energy literacy, climate change literacy, and pluralistic ignorance in order to inform targeted communications and interventions. It suggests that understanding people's knowledge, attitudes, and assumptions about others' knowledge and attitudes can help design more effective behavior change interventions and promote pro-environmental social norms.</t>
+          <t>Micro</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="3" ht="174.6" customHeight="1" s="5">
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>The text proposes a Climate and Energy Related Norms and Attitudes (CERNA) survey to assess the knowledge, attitudes, and behaviors of individuals within the PROBONO Living Labs. The survey aims to identify gaps in public understanding of climate issues and misconceptions about energy-saving behaviors, in order to inform targeted interventions and communications for behavior change. The survey also aims to assess climate change literacy and address the phenomenon of pluralistic ignorance, where individuals underestimate the support for climate policies and actions, which can hinder behavior change and policy-making efforts.</t>
+        </is>
+      </c>
+      <c r="C3" s="7" t="inlineStr">
+        <is>
+          <t>The proposed social innovation aims to assess and address cognitive biases and misconceptions related to climate and energy-related behavior. It proposes administering a Climate and Energy Related Norms and Attitudes (CERNA) survey in Living Labs, focusing on energy literacy, climate change literacy, and pluralistic ignorance. The survey aims to identify gaps in public understanding and awareness and inform the design of targeted interventions to promote more sustainable behaviors.</t>
+        </is>
+      </c>
+      <c r="D3" s="7" t="inlineStr">
+        <is>
+          <t>The text proposes the use of a Climate and Energy Related Norms and Attitudes (CERNA) survey to assess the knowledge, attitudes, and behaviors related to energy and climate change in the PROBONO Living Labs. The survey aims to identify misconceptions and gaps in understanding, which could inform targeted interventions such as providing energy-saving kits or implementing policy recommendations. The text emphasizes the importance of understanding social norms and addressing pluralistic ignorance to facilitate behavior change and policy-making.</t>
+        </is>
+      </c>
+      <c r="E3" s="7" t="inlineStr">
+        <is>
+          <t>The text provides a proposal for a survey called Climate and Energy Related Norms and Attitudes (CERNA) to assess knowledge, attitudes, and behaviors related to energy literacy and climate change literacy. The survey aims to address cognitive biases and misconceptions that may impact individuals' decision-making processes and hinder behavior change towards sustainable and energy-efficient choices. The survey also aims to assess pluralistic ignorance, which refers to the shared misconception of how others think or act, particularly related to climate issues. The proposed survey will provide valuable insights to inform targeted interventions and communication strategies to promote pro-environmental social norms and maximize their potential within the Probono Living Labs.</t>
+        </is>
+      </c>
+      <c r="F3" s="7" t="inlineStr">
+        <is>
+          <t>The text contains a proposal to administer a Climate and Energy Related Norms and Attitudes (CERNA) survey in the PROBONO Living Labs to assess knowledge, attitudes, and behaviors related to energy literacy and climate change literacy. The survey aims to identify misconceptions and gaps in understanding in order to inform targeted interventions and communication strategies. It also addresses the concept of pluralistic ignorance and the importance of social norms in influencing behavior change.</t>
+        </is>
+      </c>
+      <c r="G3" s="7" t="inlineStr">
+        <is>
+          <t>The text also proposes the use of surveys to assess energy literacy, climate change literacy, and pluralistic ignorance in order to inform targeted communications and interventions. It suggests that understanding people's knowledge, attitudes, and assumptions about others' knowledge and attitudes can help design more effective behavior change interventions and promote pro-environmental social norms.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="13.8" customHeight="1" s="5">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>Spatial scope</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>* National
-The text contains a proposed assessment tool called the Climate and Energy Related Norms and Attitudes (CERNA) survey, which aims to assess knowledge, attitudes, and behaviors related to energy and climate change. The survey will be administered in six PROBONO Living Labs, focusing on awareness and understanding of sustainable behaviors and the impacts of energy consumption. The survey will inform the design of interventions, such as targeted communication and behavior change strategies, to promote energy-saving actions.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>* National
-The text contains a proposal to administer a Climate and Energy Related Norms and Attitudes (CERNA) survey in six PROBONO Living Labs, which suggests a national scale for the spatial scope. The survey aims to assess knowledge, attitudes, and behaviors related to energy literacy and climate change within the target population. The data gathered from the survey will inform the design of interventions and policies to promote sustainable behaviors and address cognitive biases and misconceptions.
-This text does not contain any specific information about environmental initiatives at the local, regional, or international levels. It would be helpful to see more details about how the proposed interventions and policies would be implemented at different scales to address environmental challenges.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>* Local
-The text contains a proposal for a survey, called the Climate and Energy Related Norms and Attitudes (CERNA) survey, that aims to assess people's knowledge, attitudes, and behaviors related to energy and climate issues. The survey will be administered in six PROBONO Living Labs, which suggests a local spatial scope. The survey will gather data on energy literacy, climate change literacy, and pluralistic ignorance in order to inform the development of targeted interventions and policies to promote sustainable behaviors within the local community.</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>* Local
-The text describes the proposed use of a Climate and Energy Related Norms and Attitudes (CERNA) survey in six PROBONO Living Labs. The survey aims to assess knowledge, attitudes, and behaviors related to energy and climate change in order to inform interventions and initiatives targeted at changing behavior. The focus is on understanding the community's perception and awareness of energy-saving practices and climate change, and addressing cognitive biases that may impede behavior change. The emphasis on local communities suggests a local spatial scope for the social innovation assessment.</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>* Local
-Promoting sustainable behavior and energy efficiency requires addressing cognitive biases and heuristics that influence decision-making. The proposed Climate and Energy Related Norms and Attitudes (CERNA) survey aims to assess knowledge, attitudes, and behaviors related to energy literacy and climate change literacy in six PROBONO Living Labs. By understanding the gaps in public understanding and addressing misconceptions, targeted interventions and communication strategies can be developed to encourage energy-saving behaviors and increase awareness of climate change.</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>* National
-* The text proposes a Climate and Energy Related Norms and Attitudes (CERNA) survey to assess people's knowledge, attitudes, and behaviors related to energy and climate change. The purpose of the survey is to identify gaps in public understanding and misconceptions that can inform targeted interventions and communication strategies. The survey will also assess pluralistic ignorance, which is the shared misconception of how others think or act, in order to address barriers to action and promote pro-environmental social norms.</t>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="C4" s="7" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="D4" s="7" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="E4" s="7" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="F4" s="7" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="G4" s="7" t="inlineStr">
+        <is>
+          <t>National</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="174.6" customHeight="1" s="5">
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>The text contains a proposed assessment tool called the Climate and Energy Related Norms and Attitudes (CERNA) survey, which aims to assess knowledge, attitudes, and behaviors related to energy and climate change. The survey will be administered in six PROBONO Living Labs, focusing on awareness and understanding of sustainable behaviors and the impacts of energy consumption. The survey will inform the design of interventions, such as targeted communication and behavior change strategies, to promote energy-saving actions.</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>This text does not contain any specific information about environmental initiatives at the local, regional, or international levels. It would be helpful to see more details about how the proposed interventions and policies would be implemented at different scales to address environmental challenges.</t>
+        </is>
+      </c>
+      <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>The text contains a proposal for a survey, called the Climate and Energy Related Norms and Attitudes (CERNA) survey, that aims to assess people's knowledge, attitudes, and behaviors related to energy and climate issues. The survey will be administered in six PROBONO Living Labs, which suggests a local spatial scope. The survey will gather data on energy literacy, climate change literacy, and pluralistic ignorance in order to inform the development of targeted interventions and policies to promote sustainable behaviors within the local community.</t>
+        </is>
+      </c>
+      <c r="E5" s="7" t="inlineStr">
+        <is>
+          <t>The text describes the proposed use of a Climate and Energy Related Norms and Attitudes (CERNA) survey in six PROBONO Living Labs. The survey aims to assess knowledge, attitudes, and behaviors related to energy and climate change in order to inform interventions and initiatives targeted at changing behavior. The focus is on understanding the community's perception and awareness of energy-saving practices and climate change, and addressing cognitive biases that may impede behavior change. The emphasis on local communities suggests a local spatial scope for the social innovation assessment.</t>
+        </is>
+      </c>
+      <c r="F5" s="7" t="inlineStr">
+        <is>
+          <t>Promoting sustainable behavior and energy efficiency requires addressing cognitive biases and heuristics that influence decision-making. The proposed Climate and Energy Related Norms and Attitudes (CERNA) survey aims to assess knowledge, attitudes, and behaviors related to energy literacy and climate change literacy in six PROBONO Living Labs. By understanding the gaps in public understanding and addressing misconceptions, targeted interventions and communication strategies can be developed to encourage energy-saving behaviors and increase awareness of climate change.</t>
+        </is>
+      </c>
+      <c r="G5" s="7" t="inlineStr">
+        <is>
+          <t>The text proposes a Climate and Energy Related Norms and Attitudes (CERNA) survey to assess people's knowledge, attitudes, and behaviors related to energy and climate change. The purpose of the survey is to identify gaps in public understanding and misconceptions that can inform targeted interventions and communication strategies. The survey will also assess pluralistic ignorance, which is the shared misconception of how others think or act, in order to address barriers to action and promote pro-environmental social norms.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="13.8" customHeight="1" s="5">
+      <c r="A6" s="8" t="inlineStr">
         <is>
           <t>Time Horizon</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>* 5 years
-* The assessment proposes a Climate and Energy Related Norms and Attitudes (CERNA) survey to measure energy literacy, climate change literacy, and pluralistic ignorance in order to inform targeted interventions and policies to promote sustainable and energy-efficient behaviors. The survey will focus on the awareness of efficient ways to save energy in day-to-day practices and measure attitudes, concerns, and potential skepticism towards climate change. The goal is to address cognitive biases and misconceptions and leverage social norms to encourage pro-environmental attitudes and behaviors.</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>* 1 year, 5 years
-* The proposed social and behavioral research and innovation approaches aim to address cognitive biases and misconceptions that impact climate and energy-related behaviors. By administering a Climate and Energy Related Norms and Attitudes survey, the project aims to gather knowledge and assess attitudes and behaviors related to energy and climate change. This diagnostic approach can inform targeted interventions and communication strategies to promote more sustainable behaviors and increase public understanding on climate issues. However, the text does not provide specific information on the expected outcomes or timeline for these interventions.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>* 5 years
-* The text proposes the use of a Climate and Energy Related Norms and Attitudes (CERNA) survey to assess people's knowledge, attitudes, and behaviors related to energy and climate change. The survey aims to identify misconceptions, awareness gaps, and social norms that influence behavior. The gathered data will inform the design of interventions and policies that promote sustainable behaviors and maximize their potential for impact.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>* 1 year, Political Time Horizon *
-The social innovation proposed in the text is a Climate and Energy Related Norms and Attitudes (CERNA) survey to assess public knowledge, attitudes, and behaviors related to climate change and energy conservation. The survey aims to identify cognitive biases and misconceptions that influence behavior and to inform targeted interventions. The focus is on addressing pluralistic ignorance and leveraging social norms to promote pro-environmental attitudes. The proposed survey can provide a diagnostic approach to understanding factors that influence behavior change and inform future policies and interventions.</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>* "Educational", "Time Horizon", "1 year"
-* The text proposes administering a Climate and Energy Related Norms and Attitudes (CERNA) survey to assess knowledge, attitudes, and behaviors related to energy and climate change. The survey will focus on awareness of energy-saving practices and misconceptions that may exist. The results will inform targeted interventions such as nudging stickers, policy recommendations, and providing energy toolkits to households. The proposed survey aims to create a diagnostic approach to understanding the factors that influence behavior and ensure that interventions and policies are beneficial and understood by the community.</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>* "Innovative process", "Time Horizon", "5 years"
-* The social innovation proposed in the text aims to assess and address cognitive biases, improve energy literacy, and promote climate change literacy and pluralistic ignorance. By administering a Climate and Energy Related Norms and Attitudes survey, the innovation seeks to gather data on knowledge, attitudes, and behaviors related to energy and climate issues. This data would inform the design of interventions, such as targeted communications and social norm interventions, to promote more sustainable behaviors and attitudes. The expected time horizon for this innovation to have a significant impact on behavior change and policy making would be around 5 years.</t>
+      <c r="B6" s="7" t="inlineStr">
+        <is>
+          <t>5 years</t>
+        </is>
+      </c>
+      <c r="C6" s="7" t="inlineStr">
+        <is>
+          <t>1 year, 5 years</t>
+        </is>
+      </c>
+      <c r="D6" s="7" t="inlineStr">
+        <is>
+          <t>5 years</t>
+        </is>
+      </c>
+      <c r="E6" s="7" t="inlineStr">
+        <is>
+          <t>1 year, Political Time Horizon</t>
+        </is>
+      </c>
+      <c r="F6" s="7" t="inlineStr">
+        <is>
+          <t>"Educational", "Time Horizon", "1 year"</t>
+        </is>
+      </c>
+      <c r="G6" s="7" t="inlineStr">
+        <is>
+          <t>"Innovative process", "Time Horizon", "5 years"</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="174.6" customHeight="1" s="5">
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <t>The assessment proposes a Climate and Energy Related Norms and Attitudes (CERNA) survey to measure energy literacy, climate change literacy, and pluralistic ignorance in order to inform targeted interventions and policies to promote sustainable and energy-efficient behaviors. The survey will focus on the awareness of efficient ways to save energy in day-to-day practices and measure attitudes, concerns, and potential skepticism towards climate change. The goal is to address cognitive biases and misconceptions and leverage social norms to encourage pro-environmental attitudes and behaviors.</t>
+        </is>
+      </c>
+      <c r="C7" s="7" t="inlineStr">
+        <is>
+          <t>The proposed social and behavioral research and innovation approaches aim to address cognitive biases and misconceptions that impact climate and energy-related behaviors. By administering a Climate and Energy Related Norms and Attitudes survey, the project aims to gather knowledge and assess attitudes and behaviors related to energy and climate change. This diagnostic approach can inform targeted interventions and communication strategies to promote more sustainable behaviors and increase public understanding on climate issues. However, the text does not provide specific information on the expected outcomes or timeline for these interventions.</t>
+        </is>
+      </c>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>The text proposes the use of a Climate and Energy Related Norms and Attitudes (CERNA) survey to assess people's knowledge, attitudes, and behaviors related to energy and climate change. The survey aims to identify misconceptions, awareness gaps, and social norms that influence behavior. The gathered data will inform the design of interventions and policies that promote sustainable behaviors and maximize their potential for impact.</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>The social innovation proposed in the text is a Climate and Energy Related Norms and Attitudes (CERNA) survey to assess public knowledge, attitudes, and behaviors related to climate change and energy conservation. The survey aims to identify cognitive biases and misconceptions that influence behavior and to inform targeted interventions. The focus is on addressing pluralistic ignorance and leveraging social norms to promote pro-environmental attitudes. The proposed survey can provide a diagnostic approach to understanding factors that influence behavior change and inform future policies and interventions.</t>
+        </is>
+      </c>
+      <c r="F7" s="7" t="inlineStr">
+        <is>
+          <t>The text proposes administering a Climate and Energy Related Norms and Attitudes (CERNA) survey to assess knowledge, attitudes, and behaviors related to energy and climate change. The survey will focus on awareness of energy-saving practices and misconceptions that may exist. The results will inform targeted interventions such as nudging stickers, policy recommendations, and providing energy toolkits to households. The proposed survey aims to create a diagnostic approach to understanding the factors that influence behavior and ensure that interventions and policies are beneficial and understood by the community.</t>
+        </is>
+      </c>
+      <c r="G7" s="7" t="inlineStr">
+        <is>
+          <t>The social innovation proposed in the text aims to assess and address cognitive biases, improve energy literacy, and promote climate change literacy and pluralistic ignorance. By administering a Climate and Energy Related Norms and Attitudes survey, the innovation seeks to gather data on knowledge, attitudes, and behaviors related to energy and climate issues. This data would inform the design of interventions, such as targeted communications and social norm interventions, to promote more sustainable behaviors and attitudes. The expected time horizon for this innovation to have a significant impact on behavior change and policy making would be around 5 years.</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <mergeCells count="3">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetData/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;KffffffPage &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>